--- a/apu/APU.xlsx
+++ b/apu/APU.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mixer" sheetId="1" r:id="rId1"/>
+    <sheet name="Length" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -179,7 +180,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>Mixer!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -205,7 +206,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$205</c:f>
+              <c:f>Mixer!$A$3:$A$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="203"/>
@@ -307,7 +308,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$205</c:f>
+              <c:f>Mixer!$B$3:$B$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="203"/>
@@ -649,7 +650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$G$2</c:f>
+              <c:f>Mixer!$G$1:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
@@ -672,7 +673,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$205</c:f>
+              <c:f>Mixer!$F$3:$F$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="203"/>
@@ -1290,7 +1291,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$205</c:f>
+              <c:f>Mixer!$G$3:$G$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="203"/>
@@ -3569,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3619,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f>ROUND(B3/$K$3*255,0)</f>
+        <f t="shared" ref="C3:C33" si="0">ROUND(B3/$K$3*255,0)</f>
         <v>0</v>
       </c>
       <c r="D3" t="str">
@@ -3651,30 +3652,30 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B33" si="0">IF(A4,95.52/(8128/A4+100),0)</f>
+        <f t="shared" ref="B4:B33" si="1">IF(A4,95.52/(8128/A4+100),0)</f>
         <v>1.1609139523578026E-2</v>
       </c>
       <c r="C4">
-        <f>ROUND(B4/$K$3*255,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D33" si="1">DEC2HEX(C4)</f>
+        <f t="shared" ref="D4:D33" si="2">DEC2HEX(C4)</f>
         <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="2">IF(F4,163.67/(24329/F4+100),0)</f>
+        <f t="shared" ref="G4:G67" si="3">IF(F4,163.67/(24329/F4+100),0)</f>
         <v>6.6998239796962622E-3</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="3">ROUND(G4/$K$3*255,0)</f>
+        <f t="shared" ref="H4:H67" si="4">ROUND(G4/$K$3*255,0)</f>
         <v>2</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I67" si="4">DEC2HEX(H4)</f>
+        <f t="shared" ref="I4:I67" si="5">DEC2HEX(H4)</f>
         <v>2</v>
       </c>
       <c r="K4">
@@ -3687,30 +3688,30 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2.2939481268011527E-2</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.2939481268011527E-2</v>
-      </c>
-      <c r="C5">
-        <f>ROUND(B5/$K$3*255,0)</f>
         <v>6</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.334502018019487E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -3719,30 +3720,30 @@
         <v>3</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>3.4000949216896059E-2</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>3.4000949216896059E-2</v>
-      </c>
-      <c r="C6">
-        <f>ROUND(B6/$K$3*255,0)</f>
         <v>9</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9936254009500991E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -3751,30 +3752,30 @@
         <v>4</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>4.4803001876172609E-2</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>4.4803001876172609E-2</v>
-      </c>
-      <c r="C7">
-        <f>ROUND(B7/$K$3*255,0)</f>
         <v>11</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6474180112418616E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3783,30 +3784,30 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>5.5354659248956883E-2</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>5.5354659248956883E-2</v>
-      </c>
-      <c r="C8">
-        <f>ROUND(B8/$K$3*255,0)</f>
         <v>14</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>E</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2959442587297105E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3815,30 +3816,30 @@
         <v>6</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>6.5664527956003665E-2</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>6.5664527956003665E-2</v>
-      </c>
-      <c r="C9">
-        <f>ROUND(B9/$K$3*255,0)</f>
         <v>17</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9392675197561067E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A</v>
       </c>
     </row>
@@ -3847,30 +3848,30 @@
         <v>7</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>7.5740824648844587E-2</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>7.5740824648844587E-2</v>
-      </c>
-      <c r="C10">
-        <f>ROUND(B10/$K$3*255,0)</f>
         <v>19</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.577450157816932E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
@@ -3879,30 +3880,30 @@
         <v>8</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8.5591397849462361E-2</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>8.5591397849462361E-2</v>
-      </c>
-      <c r="C11">
-        <f>ROUND(B11/$K$3*255,0)</f>
         <v>22</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2105535437144329E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
     </row>
@@ -3911,30 +3912,30 @@
         <v>9</v>
       </c>
       <c r="B12">
+        <f t="shared" si="1"/>
+        <v>9.5223748338502431E-2</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>9.5223748338502431E-2</v>
-      </c>
-      <c r="C12">
-        <f>ROUND(B12/$K$3*255,0)</f>
         <v>24</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8386380752308849E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F</v>
       </c>
     </row>
@@ -3943,30 +3944,30 @@
         <v>10</v>
       </c>
       <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.10464504820333041</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.10464504820333041</v>
-      </c>
-      <c r="C13">
-        <f>ROUND(B13/$K$3*255,0)</f>
         <v>27</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1B</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4617631963362149E-2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -3975,30 +3976,30 @@
         <v>11</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.11386215864759427</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.11386215864759427</v>
-      </c>
-      <c r="C14">
-        <f>ROUND(B14/$K$3*255,0)</f>
         <v>29</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1D</v>
       </c>
       <c r="F14">
         <v>11</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0799874159424278E-2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -4007,30 +4008,30 @@
         <v>12</v>
       </c>
       <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.12288164665523155</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.12288164665523155</v>
-      </c>
-      <c r="C15">
-        <f>ROUND(B15/$K$3*255,0)</f>
         <v>31</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1F</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6933683262172411E-2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -4039,30 +4040,30 @@
         <v>13</v>
       </c>
       <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.13170980059397538</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.13170980059397538</v>
-      </c>
-      <c r="C16">
-        <f>ROUND(B16/$K$3*255,0)</f>
         <v>34</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="F16">
         <v>13</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3019626204689986E-2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4071,30 +4072,30 @@
         <v>14</v>
       </c>
       <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.14035264483627205</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.14035264483627205</v>
-      </c>
-      <c r="C17">
-        <f>ROUND(B17/$K$3*255,0)</f>
         <v>36</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="F17">
         <v>14</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.9058261106144815E-2</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -4103,30 +4104,30 @@
         <v>15</v>
       </c>
       <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0.14881595346904861</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.14881595346904861</v>
-      </c>
-      <c r="C18">
-        <f>ROUND(B18/$K$3*255,0)</f>
         <v>38</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5050137442409685E-2</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -4135,30 +4136,30 @@
         <v>16</v>
       </c>
       <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.15710526315789472</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.15710526315789472</v>
-      </c>
-      <c r="C19">
-        <f>ROUND(B19/$K$3*255,0)</f>
         <v>40</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="F19">
         <v>16</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10099579621273477</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1A</v>
       </c>
     </row>
@@ -4167,30 +4168,30 @@
         <v>17</v>
       </c>
       <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0.16522588522588522</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.16522588522588522</v>
-      </c>
-      <c r="C20">
-        <f>ROUND(B20/$K$3*255,0)</f>
         <v>42</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2A</v>
       </c>
       <c r="F20">
         <v>17</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10689577010257789</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1B</v>
       </c>
     </row>
@@ -4199,30 +4200,30 @@
         <v>18</v>
       </c>
       <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0.17318291700241739</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.17318291700241739</v>
-      </c>
-      <c r="C21">
-        <f>ROUND(B21/$K$3*255,0)</f>
         <v>44</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2C</v>
       </c>
       <c r="F21">
         <v>18</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11275058364269584</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1D</v>
       </c>
     </row>
@@ -4231,30 +4232,30 @@
         <v>19</v>
       </c>
       <c r="B22">
+        <f t="shared" si="1"/>
+        <v>0.18098125249301955</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.18098125249301955</v>
-      </c>
-      <c r="C22">
-        <f>ROUND(B22/$K$3*255,0)</f>
         <v>46</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2E</v>
       </c>
       <c r="F22">
         <v>19</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11856075336459644</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1E</v>
       </c>
     </row>
@@ -4263,30 +4264,30 @@
         <v>20</v>
       </c>
       <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.18862559241706162</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.18862559241706162</v>
-      </c>
-      <c r="C23">
-        <f>ROUND(B23/$K$3*255,0)</f>
         <v>48</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12432678795244785</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -4295,30 +4296,30 @@
         <v>21</v>
       </c>
       <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.19612045365662886</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.19612045365662886</v>
-      </c>
-      <c r="C24">
-        <f>ROUND(B24/$K$3*255,0)</f>
         <v>50</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="F24">
         <v>21</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13004918839153959</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
     </row>
@@ -4327,30 +4328,30 @@
         <v>22</v>
       </c>
       <c r="B25">
+        <f t="shared" si="1"/>
+        <v>0.20347017815646784</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.20347017815646784</v>
-      </c>
-      <c r="C25">
-        <f>ROUND(B25/$K$3*255,0)</f>
         <v>52</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="F25">
         <v>22</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13572844811338536</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
@@ -4359,30 +4360,30 @@
         <v>23</v>
       </c>
       <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0.21067894131185272</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.21067894131185272</v>
-      </c>
-      <c r="C26">
-        <f>ROUND(B26/$K$3*255,0)</f>
         <v>54</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="F26">
         <v>23</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14136505313755679</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
@@ -4391,30 +4392,30 @@
         <v>24</v>
       </c>
       <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0.21775075987841944</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.21775075987841944</v>
-      </c>
-      <c r="C27">
-        <f>ROUND(B27/$K$3*255,0)</f>
         <v>56</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="F27">
         <v>24</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14695948221033331</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
@@ -4423,30 +4424,30 @@
         <v>25</v>
       </c>
       <c r="B28">
+        <f t="shared" si="1"/>
+        <v>0.22468949943545349</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.22468949943545349</v>
-      </c>
-      <c r="C28">
-        <f>ROUND(B28/$K$3*255,0)</f>
         <v>57</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="F28">
         <v>25</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15251220694025122</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
     </row>
@@ -4455,30 +4456,30 @@
         <v>26</v>
       </c>
       <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0.23149888143176731</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.23149888143176731</v>
-      </c>
-      <c r="C29">
-        <f>ROUND(B29/$K$3*255,0)</f>
         <v>59</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3B</v>
       </c>
       <c r="F29">
         <v>26</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15802369193063237</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
@@ -4487,30 +4488,30 @@
         <v>27</v>
       </c>
       <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0.23818248984115256</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.23818248984115256</v>
-      </c>
-      <c r="C30">
-        <f>ROUND(B30/$K$3*255,0)</f>
         <v>61</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3D</v>
       </c>
       <c r="F30">
         <v>27</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16349439490917161</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2A</v>
       </c>
     </row>
@@ -4519,30 +4520,30 @@
         <v>28</v>
       </c>
       <c r="B31">
+        <f t="shared" si="1"/>
+        <v>0.24474377745241579</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.24474377745241579</v>
-      </c>
-      <c r="C31">
-        <f>ROUND(B31/$K$3*255,0)</f>
         <v>62</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3E</v>
       </c>
       <c r="F31">
         <v>28</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16892476685465738</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2B</v>
       </c>
     </row>
@@ -4551,30 +4552,30 @@
         <v>29</v>
       </c>
       <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0.2511860718171926</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.2511860718171926</v>
-      </c>
-      <c r="C32">
-        <f>ROUND(B32/$K$3*255,0)</f>
         <v>64</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F32">
         <v>29</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17431525212090049</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2C</v>
       </c>
     </row>
@@ -4583,30 +4584,30 @@
         <v>30</v>
       </c>
       <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.25751258087706685</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.25751258087706685</v>
-      </c>
-      <c r="C33">
-        <f>ROUND(B33/$K$3*255,0)</f>
         <v>66</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="F33">
         <v>30</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17966628855794209</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2E</v>
       </c>
     </row>
@@ -4615,15 +4616,15 @@
         <v>31</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18497830763060993</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2F</v>
       </c>
     </row>
@@ -4632,15 +4633,15 @@
         <v>32</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19025173453449087</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -4649,15 +4650,15 @@
         <v>33</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19548698830938505</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
@@ -4666,15 +4667,15 @@
         <v>34</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20068448195030472</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
     </row>
@@ -4683,15 +4684,15 @@
         <v>35</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20584462251608032</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
@@ -4700,15 +4701,15 @@
         <v>36</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21096781123563321</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
@@ -4717,15 +4718,15 @@
         <v>37</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21605444361197329</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
@@ -4734,15 +4735,15 @@
         <v>38</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22110490952397879</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
@@ -4751,15 +4752,15 @@
         <v>39</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22611959332601225</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3A</v>
       </c>
     </row>
@@ -4768,15 +4769,15 @@
         <v>40</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23109887394542691</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3B</v>
       </c>
     </row>
@@ -4785,15 +4786,15 @@
         <v>41</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23604312497801538</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3C</v>
       </c>
     </row>
@@ -4802,15 +4803,15 @@
         <v>42</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24095271478145042</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3D</v>
       </c>
     </row>
@@ -4819,15 +4820,15 @@
         <v>43</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24582800656676793</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3F</v>
       </c>
     </row>
@@ -4836,15 +4837,15 @@
         <v>44</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25066935848793903</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -4853,15 +4854,15 @@
         <v>45</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25547712372957787</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
@@ -4870,15 +4871,15 @@
         <v>46</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26025165059283067</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
@@ -4887,15 +4888,15 @@
         <v>47</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26499328257948945</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -4904,15 +4905,15 @@
         <v>48</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26970235847437257</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
     </row>
@@ -4921,15 +4922,15 @@
         <v>49</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27437921242601526</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
     </row>
@@ -4938,15 +4939,15 @@
         <v>50</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27902417402570834</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
     </row>
@@ -4955,15 +4956,15 @@
         <v>51</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28363756838492643</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -4972,15 +4973,15 @@
         <v>52</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2882197162111822</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
@@ -4989,15 +4990,15 @@
         <v>53</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29277093388234499</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4B</v>
       </c>
     </row>
@@ -5006,15 +5007,15 @@
         <v>54</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29729153351945914</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4C</v>
       </c>
     </row>
@@ -5023,15 +5024,15 @@
         <v>55</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30178182305809781</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4D</v>
       </c>
     </row>
@@ -5040,15 +5041,15 @@
         <v>56</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30624210631828658</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4E</v>
       </c>
     </row>
@@ -5057,15 +5058,15 @@
         <v>57</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31067268307302937</v>
       </c>
       <c r="H60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4F</v>
       </c>
     </row>
@@ -5074,15 +5075,15 @@
         <v>58</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31507384911547015</v>
       </c>
       <c r="H61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
@@ -5091,15 +5092,15 @@
         <v>59</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31944589632472131</v>
       </c>
       <c r="H62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
     </row>
@@ -5108,15 +5109,15 @@
         <v>60</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32378911273039002</v>
       </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
     </row>
@@ -5125,15 +5126,15 @@
         <v>61</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32810378257583223</v>
       </c>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
     </row>
@@ -5142,15 +5143,15 @@
         <v>62</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3323901863801631</v>
       </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
     </row>
@@ -5159,15 +5160,15 @@
         <v>63</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33664860099905314</v>
       </c>
       <c r="H66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
     </row>
@@ -5176,15 +5177,15 @@
         <v>64</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34087929968433722</v>
       </c>
       <c r="H67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
     </row>
@@ -5193,15 +5194,15 @@
         <v>65</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G131" si="5">IF(F68,163.67/(24329/F68+100),0)</f>
+        <f t="shared" ref="G68:G131" si="6">IF(F68,163.67/(24329/F68+100),0)</f>
         <v>0.34508255214246325</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H131" si="6">ROUND(G68/$K$3*255,0)</f>
+        <f t="shared" ref="H68:H131" si="7">ROUND(G68/$K$3*255,0)</f>
         <v>88</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I131" si="7">DEC2HEX(H68)</f>
+        <f t="shared" ref="I68:I131" si="8">DEC2HEX(H68)</f>
         <v>58</v>
       </c>
     </row>
@@ -5210,15 +5211,15 @@
         <v>66</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34925862459180701</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
     </row>
@@ -5227,15 +5228,15 @@
         <v>67</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35340777981887911</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5A</v>
       </c>
     </row>
@@ -5244,15 +5245,15 @@
         <v>68</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35753027723344788</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5B</v>
       </c>
     </row>
@@ -5261,15 +5262,15 @@
         <v>69</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36162637292260397</v>
       </c>
       <c r="H72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5C</v>
       </c>
     </row>
@@ -5278,15 +5279,15 @@
         <v>70</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3656963197037888</v>
       </c>
       <c r="H73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5D</v>
       </c>
     </row>
@@ -5295,15 +5296,15 @@
         <v>71</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36974036717681119</v>
       </c>
       <c r="H74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5E</v>
       </c>
     </row>
@@ -5312,15 +5313,15 @@
         <v>72</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37375876177487388</v>
       </c>
       <c r="H75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5F</v>
       </c>
     </row>
@@ -5329,15 +5330,15 @@
         <v>73</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37775174681463214</v>
       </c>
       <c r="H76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
     </row>
@@ -5346,15 +5347,15 @@
         <v>74</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38171956254530554</v>
       </c>
       <c r="H77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
     </row>
@@ -5363,15 +5364,15 @@
         <v>75</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38566244619686446</v>
       </c>
       <c r="H78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
     </row>
@@ -5380,15 +5381,15 @@
         <v>76</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38958063202731058</v>
       </c>
       <c r="H79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
     </row>
@@ -5397,15 +5398,15 @@
         <v>77</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.39347435136907172</v>
       </c>
       <c r="H80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
     </row>
@@ -5414,15 +5415,15 @@
         <v>78</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.39734383267453077</v>
       </c>
       <c r="H81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
@@ -5431,15 +5432,15 @@
         <v>79</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40118930156070615</v>
       </c>
       <c r="H82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
     </row>
@@ -5448,15 +5449,15 @@
         <v>80</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.405010980853104</v>
       </c>
       <c r="H83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
     </row>
@@ -5465,15 +5466,15 @@
         <v>81</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4088090906287582</v>
       </c>
       <c r="H84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
@@ -5482,15 +5483,15 @@
         <v>82</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41258384825847705</v>
       </c>
       <c r="H85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
     </row>
@@ -5499,15 +5500,15 @@
         <v>83</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41633546844831282</v>
       </c>
       <c r="H86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6A</v>
       </c>
     </row>
@@ -5516,15 +5517,15 @@
         <v>84</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42006416328027124</v>
       </c>
       <c r="H87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6B</v>
       </c>
     </row>
@@ -5533,15 +5534,15 @@
         <v>85</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42377014225227688</v>
       </c>
       <c r="H88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6C</v>
       </c>
     </row>
@@ -5550,15 +5551,15 @@
         <v>86</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42745361231741014</v>
       </c>
       <c r="H89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6D</v>
       </c>
     </row>
@@ -5567,15 +5568,15 @@
         <v>87</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4311147779224318</v>
       </c>
       <c r="H90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6E</v>
       </c>
     </row>
@@ -5584,15 +5585,15 @@
         <v>88</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4347538410456096</v>
       </c>
       <c r="H91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6F</v>
       </c>
     </row>
@@ -5601,15 +5602,15 @@
         <v>89</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43837100123386197</v>
       </c>
       <c r="H92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -5618,15 +5619,15 @@
         <v>90</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44196645563923309</v>
       </c>
       <c r="H93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
     </row>
@@ -5635,15 +5636,15 @@
         <v>91</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44554039905471293</v>
       </c>
       <c r="H94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
     </row>
@@ -5652,15 +5653,15 @@
         <v>92</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44909302394941686</v>
       </c>
       <c r="H95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
     </row>
@@ -5669,15 +5670,15 @@
         <v>93</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45262452050313712</v>
       </c>
       <c r="H96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
     </row>
@@ -5686,15 +5687,15 @@
         <v>94</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45613507664027986</v>
       </c>
       <c r="H97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
     </row>
@@ -5703,15 +5704,15 @@
         <v>95</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45962487806320018</v>
       </c>
       <c r="H98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -5720,15 +5721,15 @@
         <v>96</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4630941082849479</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
     </row>
@@ -5737,15 +5738,15 @@
         <v>97</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46654294866143581</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
     </row>
@@ -5754,15 +5755,15 @@
         <v>98</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46997157842304194</v>
       </c>
       <c r="H101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
     </row>
@@ -5771,15 +5772,15 @@
         <v>99</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47338017470565896</v>
       </c>
       <c r="H102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
     </row>
@@ -5788,15 +5789,15 @@
         <v>100</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47676891258119958</v>
       </c>
       <c r="H103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7A</v>
       </c>
     </row>
@@ -5805,15 +5806,15 @@
         <v>101</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48013796508757145</v>
       </c>
       <c r="H104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7A</v>
       </c>
     </row>
@@ -5822,15 +5823,15 @@
         <v>102</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48348750325813084</v>
       </c>
       <c r="H105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7B</v>
       </c>
     </row>
@@ -5839,15 +5840,15 @@
         <v>103</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48681769615062515</v>
       </c>
       <c r="H106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7C</v>
       </c>
     </row>
@@ -5856,15 +5857,15 @@
         <v>104</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49012871087563703</v>
       </c>
       <c r="H107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7D</v>
       </c>
     </row>
@@ -5873,15 +5874,15 @@
         <v>105</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49342071262453702</v>
       </c>
       <c r="H108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7E</v>
       </c>
     </row>
@@ -5890,15 +5891,15 @@
         <v>106</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49669386469695664</v>
       </c>
       <c r="H109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7F</v>
       </c>
     </row>
@@ -5907,15 +5908,15 @@
         <v>107</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49994832852779125</v>
       </c>
       <c r="H110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7F</v>
       </c>
     </row>
@@ -5924,15 +5925,15 @@
         <v>108</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50318426371374081</v>
       </c>
       <c r="H111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -5941,15 +5942,15 @@
         <v>109</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50640182803939926</v>
       </c>
       <c r="H112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
     </row>
@@ -5958,15 +5959,15 @@
         <v>110</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50960117750290124</v>
       </c>
       <c r="H113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
     </row>
@@ -5975,15 +5976,15 @@
         <v>111</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51278246634113289</v>
       </c>
       <c r="H114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
     </row>
@@ -5992,15 +5993,15 @@
         <v>112</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51594584705451885</v>
       </c>
       <c r="H115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
     </row>
@@ -6009,15 +6010,15 @@
         <v>113</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51909147043139015</v>
       </c>
       <c r="H116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
     </row>
@@ -6026,15 +6027,15 @@
         <v>114</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52221948557194431</v>
       </c>
       <c r="H117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
     </row>
@@ -6043,15 +6044,15 @@
         <v>115</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52533003991180327</v>
       </c>
       <c r="H118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134</v>
       </c>
       <c r="I118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
     </row>
@@ -6060,15 +6061,15 @@
         <v>116</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52842327924517796</v>
       </c>
       <c r="H119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
     </row>
@@ -6077,15 +6078,15 @@
         <v>117</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53149934774764773</v>
       </c>
       <c r="H120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
     </row>
@@ -6094,15 +6095,15 @@
         <v>118</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5345583879985607</v>
       </c>
       <c r="H121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
     </row>
@@ -6111,15 +6112,15 @@
         <v>119</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53760054100306376</v>
       </c>
       <c r="H122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137</v>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
     </row>
@@ -6128,15 +6129,15 @@
         <v>120</v>
       </c>
       <c r="G123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54062594621376858</v>
       </c>
       <c r="H123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8A</v>
       </c>
     </row>
@@ -6145,15 +6146,15 @@
         <v>121</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54363474155206015</v>
       </c>
       <c r="H124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139</v>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8B</v>
       </c>
     </row>
@@ -6162,15 +6163,15 @@
         <v>122</v>
       </c>
       <c r="G125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54662706342905631</v>
       </c>
       <c r="H125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8B</v>
       </c>
     </row>
@@ -6179,15 +6180,15 @@
         <v>123</v>
       </c>
       <c r="G126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54960304676622351</v>
       </c>
       <c r="H126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="I126" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8C</v>
       </c>
     </row>
@@ -6196,15 +6197,15 @@
         <v>124</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55256282501565523</v>
       </c>
       <c r="H127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141</v>
       </c>
       <c r="I127" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8D</v>
       </c>
     </row>
@@ -6213,15 +6214,15 @@
         <v>125</v>
       </c>
       <c r="G128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55550653018002116</v>
       </c>
       <c r="H128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="I128" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8E</v>
       </c>
     </row>
@@ -6230,15 +6231,15 @@
         <v>126</v>
       </c>
       <c r="G129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55843429283219148</v>
       </c>
       <c r="H129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8E</v>
       </c>
     </row>
@@ -6247,15 +6248,15 @@
         <v>127</v>
       </c>
       <c r="G130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56134624213454321</v>
       </c>
       <c r="H130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8F</v>
       </c>
     </row>
@@ -6264,15 +6265,15 @@
         <v>128</v>
       </c>
       <c r="G131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56424250585795466</v>
       </c>
       <c r="H131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -6281,15 +6282,15 @@
         <v>129</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G132:G195" si="8">IF(F132,163.67/(24329/F132+100),0)</f>
+        <f t="shared" ref="G132:G195" si="9">IF(F132,163.67/(24329/F132+100),0)</f>
         <v>0.56712321040049429</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H195" si="9">ROUND(G132/$K$3*255,0)</f>
+        <f t="shared" ref="H132:H195" si="10">ROUND(G132/$K$3*255,0)</f>
         <v>145</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" ref="I132:I195" si="10">DEC2HEX(H132)</f>
+        <f t="shared" ref="I132:I195" si="11">DEC2HEX(H132)</f>
         <v>91</v>
       </c>
     </row>
@@ -6298,15 +6299,15 @@
         <v>130</v>
       </c>
       <c r="G133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.56998848080580766</v>
       </c>
       <c r="H133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
     </row>
@@ -6315,15 +6316,15 @@
         <v>131</v>
       </c>
       <c r="G134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57283844078121238</v>
       </c>
       <c r="H134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
     </row>
@@ -6332,15 +6333,15 @@
         <v>132</v>
       </c>
       <c r="G135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57567321271549998</v>
       </c>
       <c r="H135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
     </row>
@@ -6349,15 +6350,15 @@
         <v>133</v>
       </c>
       <c r="G136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5784929176964575</v>
       </c>
       <c r="H136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
     </row>
@@ -6366,15 +6367,15 @@
         <v>134</v>
       </c>
       <c r="G137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58129767552810829</v>
       </c>
       <c r="H137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
     </row>
@@ -6383,15 +6384,15 @@
         <v>135</v>
       </c>
       <c r="G138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58408760474768029</v>
       </c>
       <c r="H138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
       <c r="I138" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
     </row>
@@ -6400,15 +6401,15 @@
         <v>136</v>
       </c>
       <c r="G139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58686282264230538</v>
       </c>
       <c r="H139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
     </row>
@@ -6417,15 +6418,15 @@
         <v>137</v>
       </c>
       <c r="G140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58962344526545529</v>
       </c>
       <c r="H140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
     </row>
@@ -6434,15 +6435,15 @@
         <v>138</v>
       </c>
       <c r="G141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59236958745311963</v>
       </c>
       <c r="H141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
     </row>
@@ -6451,15 +6452,15 @@
         <v>139</v>
       </c>
       <c r="G142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59510136283972903</v>
       </c>
       <c r="H142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
       <c r="I142" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
     </row>
@@ -6468,15 +6469,15 @@
         <v>140</v>
       </c>
       <c r="G143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59781888387382909</v>
       </c>
       <c r="H143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
     </row>
@@ -6485,15 +6486,15 @@
         <v>141</v>
       </c>
       <c r="G144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6005222618335111</v>
       </c>
       <c r="H144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
       <c r="I144" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
     </row>
@@ -6502,15 +6503,15 @@
         <v>142</v>
       </c>
       <c r="G145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60321160684159969</v>
       </c>
       <c r="H145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="I145" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9A</v>
       </c>
     </row>
@@ -6519,15 +6520,15 @@
         <v>143</v>
       </c>
       <c r="G146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60588702788060789</v>
       </c>
       <c r="H146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
       <c r="I146" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9B</v>
       </c>
     </row>
@@ -6536,15 +6537,15 @@
         <v>144</v>
       </c>
       <c r="G147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60854863280745686</v>
       </c>
       <c r="H147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9B</v>
       </c>
     </row>
@@ -6553,15 +6554,15 @@
         <v>145</v>
       </c>
       <c r="G148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.61119652836797234</v>
       </c>
       <c r="H148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="I148" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9C</v>
       </c>
     </row>
@@ -6570,15 +6571,15 @@
         <v>146</v>
       </c>
       <c r="G149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.61383082021115365</v>
       </c>
       <c r="H149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="I149" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9D</v>
       </c>
     </row>
@@ -6587,15 +6588,15 @@
         <v>147</v>
       </c>
       <c r="G150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.61645161290322581</v>
       </c>
       <c r="H150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="I150" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9D</v>
       </c>
     </row>
@@ -6604,15 +6605,15 @@
         <v>148</v>
       </c>
       <c r="G151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.61905900994147567</v>
       </c>
       <c r="H151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="I151" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9E</v>
       </c>
     </row>
@@ -6621,15 +6622,15 @@
         <v>149</v>
       </c>
       <c r="G152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6216531137678758</v>
       </c>
       <c r="H152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
       <c r="I152" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9F</v>
       </c>
     </row>
@@ -6638,15 +6639,15 @@
         <v>150</v>
       </c>
       <c r="G153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.62423402578250142</v>
       </c>
       <c r="H153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
       <c r="I153" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9F</v>
       </c>
     </row>
@@ -6655,15 +6656,15 @@
         <v>151</v>
       </c>
       <c r="G154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.62680184635674241</v>
       </c>
       <c r="H154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="I154" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A0</v>
       </c>
     </row>
@@ -6672,15 +6673,15 @@
         <v>152</v>
       </c>
       <c r="G155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6293566748463153</v>
       </c>
       <c r="H155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="I155" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A0</v>
       </c>
     </row>
@@ -6689,15 +6690,15 @@
         <v>153</v>
       </c>
       <c r="G156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.63189860960407773</v>
       </c>
       <c r="H156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>161</v>
       </c>
       <c r="I156" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A1</v>
       </c>
     </row>
@@ -6706,15 +6707,15 @@
         <v>154</v>
       </c>
       <c r="G157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.63442774799265012</v>
       </c>
       <c r="H157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="I157" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A2</v>
       </c>
     </row>
@@ -6723,15 +6724,15 @@
         <v>155</v>
       </c>
       <c r="G158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.63694418639684636</v>
       </c>
       <c r="H158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="I158" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A2</v>
       </c>
     </row>
@@ -6740,15 +6741,15 @@
         <v>156</v>
       </c>
       <c r="G159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.63944802023591873</v>
       </c>
       <c r="H159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
       <c r="I159" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A3</v>
       </c>
     </row>
@@ -6757,15 +6758,15 @@
         <v>157</v>
       </c>
       <c r="G160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64193934397561769</v>
       </c>
       <c r="H160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
       <c r="I160" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A4</v>
       </c>
     </row>
@@ -6774,15 +6775,15 @@
         <v>158</v>
       </c>
       <c r="G161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64441825114007323</v>
       </c>
       <c r="H161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
       <c r="I161" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A4</v>
       </c>
     </row>
@@ -6791,15 +6792,15 @@
         <v>159</v>
       </c>
       <c r="G162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64688483432349786</v>
       </c>
       <c r="H162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
       <c r="I162" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A5</v>
       </c>
     </row>
@@ -6808,15 +6809,15 @@
         <v>160</v>
       </c>
       <c r="G163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64933918520171585</v>
       </c>
       <c r="H163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
       <c r="I163" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A6</v>
       </c>
     </row>
@@ -6825,15 +6826,15 @@
         <v>161</v>
       </c>
       <c r="G164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65178139454352069</v>
       </c>
       <c r="H164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
       <c r="I164" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A6</v>
       </c>
     </row>
@@ -6842,15 +6843,15 @@
         <v>162</v>
       </c>
       <c r="G165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65421155222186578</v>
       </c>
       <c r="H165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A7</v>
       </c>
     </row>
@@ -6859,15 +6860,15 @@
         <v>163</v>
       </c>
       <c r="G166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65662974722488854</v>
       </c>
       <c r="H166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A7</v>
       </c>
     </row>
@@ -6876,15 +6877,15 @@
         <v>164</v>
       </c>
       <c r="G167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65903606766677303</v>
       </c>
       <c r="H167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A8</v>
       </c>
     </row>
@@ -6893,15 +6894,15 @@
         <v>165</v>
       </c>
       <c r="G168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66143060079845206</v>
       </c>
       <c r="H168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>169</v>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A9</v>
       </c>
     </row>
@@ -6910,15 +6911,15 @@
         <v>166</v>
       </c>
       <c r="G169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66381343301815332</v>
       </c>
       <c r="H169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>169</v>
       </c>
       <c r="I169" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>A9</v>
       </c>
     </row>
@@ -6927,15 +6928,15 @@
         <v>167</v>
       </c>
       <c r="G170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66618464988179082</v>
       </c>
       <c r="H170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="I170" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AA</v>
       </c>
     </row>
@@ -6944,15 +6945,15 @@
         <v>168</v>
       </c>
       <c r="G171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66854433611320474</v>
       </c>
       <c r="H171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="I171" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AA</v>
       </c>
     </row>
@@ -6961,15 +6962,15 @@
         <v>169</v>
       </c>
       <c r="G172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.67089257561425197</v>
       </c>
       <c r="H172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
       <c r="I172" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AB</v>
       </c>
     </row>
@@ -6978,15 +6979,15 @@
         <v>170</v>
       </c>
       <c r="G173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.67322945147475133</v>
       </c>
       <c r="H173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
       <c r="I173" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AC</v>
       </c>
     </row>
@@ -6995,15 +6996,15 @@
         <v>171</v>
       </c>
       <c r="G174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.67555504598228289</v>
       </c>
       <c r="H174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
       <c r="I174" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AC</v>
       </c>
     </row>
@@ -7012,15 +7013,15 @@
         <v>172</v>
       </c>
       <c r="G175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.67786944063184751</v>
       </c>
       <c r="H175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
       <c r="I175" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AD</v>
       </c>
     </row>
@@ -7029,15 +7030,15 @@
         <v>173</v>
       </c>
       <c r="G176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.68017271613538632</v>
       </c>
       <c r="H176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
       <c r="I176" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AD</v>
       </c>
     </row>
@@ -7046,15 +7047,15 @@
         <v>174</v>
       </c>
       <c r="G177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6824649524311629</v>
       </c>
       <c r="H177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="I177" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AE</v>
       </c>
     </row>
@@ -7063,15 +7064,15 @@
         <v>175</v>
       </c>
       <c r="G178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.68474622869301205</v>
       </c>
       <c r="H178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
       <c r="I178" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AF</v>
       </c>
     </row>
@@ -7080,15 +7081,15 @@
         <v>176</v>
       </c>
       <c r="G179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.68701662333945479</v>
       </c>
       <c r="H179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
       <c r="I179" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>AF</v>
       </c>
     </row>
@@ -7097,15 +7098,15 @@
         <v>177</v>
       </c>
       <c r="G180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6892762140426848</v>
       </c>
       <c r="H180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
       <c r="I180" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B0</v>
       </c>
     </row>
@@ -7114,15 +7115,15 @@
         <v>178</v>
       </c>
       <c r="G181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.69152507773742555</v>
       </c>
       <c r="H181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
       <c r="I181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B0</v>
       </c>
     </row>
@@ -7131,15 +7132,15 @@
         <v>179</v>
       </c>
       <c r="G182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.69376329062966202</v>
       </c>
       <c r="H182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
       <c r="I182" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B1</v>
       </c>
     </row>
@@ -7148,15 +7149,15 @@
         <v>180</v>
       </c>
       <c r="G183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.69599092820524933</v>
       </c>
       <c r="H183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
       <c r="I183" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B1</v>
       </c>
     </row>
@@ -7165,15 +7166,15 @@
         <v>181</v>
       </c>
       <c r="G184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.69820806523839818</v>
       </c>
       <c r="H184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
       <c r="I184" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B2</v>
       </c>
     </row>
@@ -7182,15 +7183,15 @@
         <v>182</v>
       </c>
       <c r="G185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7004147758000423</v>
       </c>
       <c r="H185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>179</v>
       </c>
       <c r="I185" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B3</v>
       </c>
     </row>
@@ -7199,15 +7200,15 @@
         <v>183</v>
       </c>
       <c r="G186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.70261113326608648</v>
       </c>
       <c r="H186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>179</v>
       </c>
       <c r="I186" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B3</v>
       </c>
     </row>
@@ -7216,15 +7217,15 @@
         <v>184</v>
       </c>
       <c r="G187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.70479721032553999</v>
       </c>
       <c r="H187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="I187" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B4</v>
       </c>
     </row>
@@ -7233,15 +7234,15 @@
         <v>185</v>
       </c>
       <c r="G188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.70697307898853579</v>
       </c>
       <c r="H188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="I188" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B4</v>
       </c>
     </row>
@@ -7250,15 +7251,15 @@
         <v>186</v>
       </c>
       <c r="G189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.70913881059423689</v>
       </c>
       <c r="H189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
       <c r="I189" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B5</v>
       </c>
     </row>
@@ -7267,15 +7268,15 @@
         <v>187</v>
       </c>
       <c r="G190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.71129447581863392</v>
       </c>
       <c r="H190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
       <c r="I190" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B5</v>
       </c>
     </row>
@@ -7284,15 +7285,15 @@
         <v>188</v>
       </c>
       <c r="G191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.71344014468223227</v>
       </c>
       <c r="H191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
       <c r="I191" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B6</v>
       </c>
     </row>
@@ -7301,15 +7302,15 @@
         <v>189</v>
       </c>
       <c r="G192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.71557588655763493</v>
       </c>
       <c r="H192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B6</v>
       </c>
     </row>
@@ -7318,15 +7319,15 @@
         <v>190</v>
       </c>
       <c r="G193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.71770177017701764</v>
       </c>
       <c r="H193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B7</v>
       </c>
     </row>
@@ -7335,15 +7336,15 @@
         <v>191</v>
       </c>
       <c r="G194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.71981786363950351</v>
       </c>
       <c r="H194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B8</v>
       </c>
     </row>
@@ -7352,15 +7353,15 @@
         <v>192</v>
       </c>
       <c r="G195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.72192423441843356</v>
       </c>
       <c r="H195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
       <c r="I195" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>B8</v>
       </c>
     </row>
@@ -7369,15 +7370,15 @@
         <v>193</v>
       </c>
       <c r="G196">
-        <f t="shared" ref="G196:G205" si="11">IF(F196,163.67/(24329/F196+100),0)</f>
+        <f t="shared" ref="G196:G205" si="12">IF(F196,163.67/(24329/F196+100),0)</f>
         <v>0.72402094936853911</v>
       </c>
       <c r="H196">
-        <f t="shared" ref="H196:H205" si="12">ROUND(G196/$K$3*255,0)</f>
+        <f t="shared" ref="H196:H205" si="13">ROUND(G196/$K$3*255,0)</f>
         <v>185</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" ref="I196:I205" si="13">DEC2HEX(H196)</f>
+        <f t="shared" ref="I196:I205" si="14">DEC2HEX(H196)</f>
         <v>B9</v>
       </c>
     </row>
@@ -7386,15 +7387,15 @@
         <v>194</v>
       </c>
       <c r="G197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.72610807473301464</v>
       </c>
       <c r="H197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>185</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>B9</v>
       </c>
     </row>
@@ -7403,15 +7404,15 @@
         <v>195</v>
       </c>
       <c r="G198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.7281856761504939</v>
       </c>
       <c r="H198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>186</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BA</v>
       </c>
     </row>
@@ -7420,15 +7421,15 @@
         <v>196</v>
       </c>
       <c r="G199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.73025381866193173</v>
       </c>
       <c r="H199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>186</v>
       </c>
       <c r="I199" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BA</v>
       </c>
     </row>
@@ -7437,15 +7438,15 @@
         <v>197</v>
       </c>
       <c r="G200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.73231256671739076</v>
       </c>
       <c r="H200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>187</v>
       </c>
       <c r="I200" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BB</v>
       </c>
     </row>
@@ -7454,15 +7455,15 @@
         <v>198</v>
       </c>
       <c r="G201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.73436198418273702</v>
       </c>
       <c r="H201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>187</v>
       </c>
       <c r="I201" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BB</v>
       </c>
     </row>
@@ -7471,15 +7472,15 @@
         <v>199</v>
       </c>
       <c r="G202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.73640213434624335</v>
       </c>
       <c r="H202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>188</v>
       </c>
       <c r="I202" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BC</v>
       </c>
     </row>
@@ -7488,15 +7489,15 @@
         <v>200</v>
       </c>
       <c r="G203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.73843307992510543</v>
       </c>
       <c r="H203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>188</v>
       </c>
       <c r="I203" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BC</v>
       </c>
     </row>
@@ -7505,15 +7506,15 @@
         <v>201</v>
       </c>
       <c r="G204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.74045488307186746</v>
       </c>
       <c r="H204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>189</v>
       </c>
       <c r="I204" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BD</v>
       </c>
     </row>
@@ -7522,15 +7523,15 @@
         <v>202</v>
       </c>
       <c r="G205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.74246760538076295</v>
       </c>
       <c r="H205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>189</v>
       </c>
       <c r="I205" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>BD</v>
       </c>
     </row>
@@ -7538,4 +7539,789 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>DEC2HEX(A1)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1" t="str">
+        <f>DEC2HEX(C1)</f>
+        <v>A</v>
+      </c>
+      <c r="E1">
+        <f>C1-1</f>
+        <v>9</v>
+      </c>
+      <c r="F1" t="str">
+        <f>DEC2HEX(E1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B32" si="0">DEC2HEX(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>254</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D32" si="1">DEC2HEX(C2)</f>
+        <v>FE</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E32" si="2">C2-1</f>
+        <v>253</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F32" si="3">DEC2HEX(E2)</f>
+        <v>FD</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>4F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>160</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>A0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>9F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>3C</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v>3B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>1A</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>48</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>2F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>96</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>5F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>192</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>C0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v>BF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+      <c r="C27">
+        <v>72</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>1A</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>1C</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>1B</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>1F</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>1E</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>1D</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B34">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>